--- a/Sprints/Sprint-Backlog-Burndown-Chart.xlsx
+++ b/Sprints/Sprint-Backlog-Burndown-Chart.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/conwaycmoravian.edu/Courses/234/sandwichTruckProj./"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/conwaycmoravian.edu/Courses/234/sandwichTruckProj./Sprints/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2CAC17B-141E-AD46-A22C-5FD41E23BA70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7638BB6B-D29B-5F48-855D-8385693FD479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15960" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="62">
   <si>
     <t>User Story #1</t>
   </si>
@@ -218,6 +218,12 @@
   </si>
   <si>
     <t>Task: Right Turn Route</t>
+  </si>
+  <si>
+    <t>Task:Refactor</t>
+  </si>
+  <si>
+    <t>Task: Modifying Routes</t>
   </si>
 </sst>
 </file>
@@ -543,28 +549,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>38</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>37</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>29</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>26</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>20</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1584,7 +1590,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="75" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M8" sqref="M8"/>
+      <selection pane="bottomLeft" activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2237,19 +2243,37 @@
     </row>
     <row r="16" spans="2:29" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9">
+        <v>4</v>
+      </c>
+      <c r="G16" s="9">
+        <v>8</v>
+      </c>
+      <c r="H16" s="9">
+        <v>7</v>
+      </c>
+      <c r="I16" s="9">
+        <v>3</v>
+      </c>
+      <c r="J16" s="9">
+        <v>2</v>
+      </c>
+      <c r="K16" s="9">
         <v>1</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
+      <c r="L16" s="9">
+        <v>1</v>
+      </c>
+      <c r="M16" s="9">
+        <v>1</v>
+      </c>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
@@ -2269,19 +2293,37 @@
     </row>
     <row r="17" spans="2:29" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="9" t="s">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
+      <c r="D17" s="9" t="s">
+        <v>37</v>
+      </c>
       <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
+      <c r="F17" s="9">
+        <v>6</v>
+      </c>
+      <c r="G17" s="9">
+        <v>8</v>
+      </c>
+      <c r="H17" s="9">
+        <v>7</v>
+      </c>
+      <c r="I17" s="9">
+        <v>5</v>
+      </c>
+      <c r="J17" s="9">
+        <v>3</v>
+      </c>
+      <c r="K17" s="9">
+        <v>0</v>
+      </c>
+      <c r="L17" s="9">
+        <v>0</v>
+      </c>
+      <c r="M17" s="9">
+        <v>0</v>
+      </c>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
@@ -2698,35 +2740,35 @@
       <c r="E30" s="5"/>
       <c r="F30" s="5">
         <f>SUM(F5:F29)</f>
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G30" s="5">
         <f>SUM(G6:G29)</f>
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="H30" s="5">
         <f t="shared" ref="H30:M30" si="0">SUM(H5:H29)</f>
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="I30" s="5">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="J30" s="5">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="K30" s="5">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L30" s="5">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M30" s="5">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N30" s="4"/>
       <c r="O30" s="4"/>

--- a/Sprints/Sprint-Backlog-Burndown-Chart.xlsx
+++ b/Sprints/Sprint-Backlog-Burndown-Chart.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/conwaycmoravian.edu/Courses/234/sandwichTruckProj./Sprints/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abatotmoravian.edu/MyCourses/234/sandwichTruckProj./Sprints/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7638BB6B-D29B-5F48-855D-8385693FD479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{657A5658-0577-4144-907D-2959AFAFF290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15960" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15960" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint Backlog #2" sheetId="8" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="63">
   <si>
     <t>User Story #1</t>
   </si>
@@ -224,6 +224,9 @@
   </si>
   <si>
     <t>Task: Modifying Routes</t>
+  </si>
+  <si>
+    <t>Task: Add sandwich ordrs to the list</t>
   </si>
 </sst>
 </file>
@@ -549,28 +552,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>48</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>56</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>51</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>37</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>21</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1588,9 +1591,9 @@
   </sheetPr>
   <dimension ref="B1:AC126"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M17" sqref="M17"/>
+      <selection pane="bottomLeft" activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1825,22 +1828,22 @@
         <v>8</v>
       </c>
       <c r="H6" s="9">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I6" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J6" s="9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K6" s="9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L6" s="9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M6" s="9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
@@ -1881,16 +1884,16 @@
         <v>1</v>
       </c>
       <c r="J7" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
@@ -1931,16 +1934,16 @@
         <v>4</v>
       </c>
       <c r="J8" s="9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K8" s="9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L8" s="9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M8" s="9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
@@ -2156,7 +2159,7 @@
         <v>4</v>
       </c>
       <c r="M13" s="9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
@@ -2316,7 +2319,7 @@
         <v>3</v>
       </c>
       <c r="K17" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" s="9">
         <v>0</v>
@@ -2448,14 +2451,30 @@
         <v>40</v>
       </c>
       <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
+      <c r="F21" s="9">
+        <v>10</v>
+      </c>
+      <c r="G21" s="9">
+        <v>9</v>
+      </c>
+      <c r="H21" s="9">
+        <v>5</v>
+      </c>
+      <c r="I21" s="9">
+        <v>5</v>
+      </c>
+      <c r="J21" s="9">
+        <v>5</v>
+      </c>
+      <c r="K21" s="9">
+        <v>2</v>
+      </c>
+      <c r="L21" s="9">
+        <v>1</v>
+      </c>
+      <c r="M21" s="9">
+        <v>0</v>
+      </c>
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
@@ -2475,19 +2494,37 @@
     </row>
     <row r="22" spans="2:29" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="9" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
+      <c r="D22" s="9" t="s">
+        <v>40</v>
+      </c>
       <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
+      <c r="F22" s="9">
+        <v>2</v>
+      </c>
+      <c r="G22" s="9">
+        <v>2</v>
+      </c>
+      <c r="H22" s="9">
+        <v>2</v>
+      </c>
+      <c r="I22" s="9">
+        <v>2</v>
+      </c>
+      <c r="J22" s="9">
+        <v>2</v>
+      </c>
+      <c r="K22" s="9">
+        <v>2</v>
+      </c>
+      <c r="L22" s="9">
+        <v>0</v>
+      </c>
+      <c r="M22" s="9">
+        <v>0</v>
+      </c>
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
@@ -2740,35 +2777,35 @@
       <c r="E30" s="5"/>
       <c r="F30" s="5">
         <f>SUM(F5:F29)</f>
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="G30" s="5">
         <f>SUM(G6:G29)</f>
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="H30" s="5">
         <f t="shared" ref="H30:M30" si="0">SUM(H5:H29)</f>
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I30" s="5">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="J30" s="5">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K30" s="5">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L30" s="5">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M30" s="5">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="N30" s="4"/>
       <c r="O30" s="4"/>

--- a/Sprints/Sprint-Backlog-Burndown-Chart.xlsx
+++ b/Sprints/Sprint-Backlog-Burndown-Chart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10410"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abatotmoravian.edu/MyCourses/234/sandwichTruckProj./Sprints/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/conwaycmoravian.edu/Courses/234/sandwichTruckProj./Sprints/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{657A5658-0577-4144-907D-2959AFAFF290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44C9AFDE-F7AE-1A43-B7F3-3986A39C2416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15960" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15960" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint Backlog #2" sheetId="8" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="65">
   <si>
     <t>User Story #1</t>
   </si>
@@ -227,6 +227,12 @@
   </si>
   <si>
     <t>Task: Add sandwich ordrs to the list</t>
+  </si>
+  <si>
+    <t>Task UML Diagram</t>
+  </si>
+  <si>
+    <t>Task JavaDocs</t>
   </si>
 </sst>
 </file>
@@ -552,28 +558,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>60</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>67</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>54</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1591,9 +1597,9 @@
   </sheetPr>
   <dimension ref="B1:AC126"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M14" sqref="M14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="75" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2041,10 +2047,10 @@
         <v>8</v>
       </c>
       <c r="G11" s="9">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H11" s="9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I11" s="9">
         <v>3</v>
@@ -2088,28 +2094,28 @@
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="9">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G12" s="9">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H12" s="9">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I12" s="9">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J12" s="9">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K12" s="9">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L12" s="9">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M12" s="9">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
@@ -2159,7 +2165,7 @@
         <v>4</v>
       </c>
       <c r="M13" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
@@ -2180,19 +2186,37 @@
     </row>
     <row r="14" spans="2:29" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="9" t="s">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
+      <c r="D14" s="9" t="s">
+        <v>35</v>
+      </c>
       <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
+      <c r="F14" s="9">
+        <v>2</v>
+      </c>
+      <c r="G14" s="9">
+        <v>2</v>
+      </c>
+      <c r="H14" s="9">
+        <v>2</v>
+      </c>
+      <c r="I14" s="9">
+        <v>2</v>
+      </c>
+      <c r="J14" s="9">
+        <v>2</v>
+      </c>
+      <c r="K14" s="9">
+        <v>2</v>
+      </c>
+      <c r="L14" s="9">
+        <v>2</v>
+      </c>
+      <c r="M14" s="9">
+        <v>0</v>
+      </c>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
@@ -2346,19 +2370,37 @@
     </row>
     <row r="18" spans="2:29" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="9" t="s">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
+      <c r="D18" s="9" t="s">
+        <v>37</v>
+      </c>
       <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
+      <c r="F18" s="9">
+        <v>4</v>
+      </c>
+      <c r="G18" s="9">
+        <v>4</v>
+      </c>
+      <c r="H18" s="9">
+        <v>4</v>
+      </c>
+      <c r="I18" s="9">
+        <v>4</v>
+      </c>
+      <c r="J18" s="9">
+        <v>4</v>
+      </c>
+      <c r="K18" s="9">
+        <v>4</v>
+      </c>
+      <c r="L18" s="9">
+        <v>4</v>
+      </c>
+      <c r="M18" s="9">
+        <v>0</v>
+      </c>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
@@ -2777,35 +2819,35 @@
       <c r="E30" s="5"/>
       <c r="F30" s="5">
         <f>SUM(F5:F29)</f>
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G30" s="5">
         <f>SUM(G6:G29)</f>
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="H30" s="5">
         <f t="shared" ref="H30:M30" si="0">SUM(H5:H29)</f>
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="I30" s="5">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="J30" s="5">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="K30" s="5">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="L30" s="5">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="M30" s="5">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="N30" s="4"/>
       <c r="O30" s="4"/>

--- a/Sprints/Sprint-Backlog-Burndown-Chart.xlsx
+++ b/Sprints/Sprint-Backlog-Burndown-Chart.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/conwaycmoravian.edu/Courses/234/sandwichTruckProj./Sprints/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D601E6-CA3B-D946-A2BA-D2D7D9FABFE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CCEDE91-F458-1A41-AD53-52347E034AB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="200" yWindow="1200" windowWidth="28800" windowHeight="14820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="28800" windowHeight="14820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint Backlog #2" sheetId="8" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Sprint Backlog #2'!$B$3:$W$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Sprint Backlog #2'!$B$3:$U$30</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>User Story #1</t>
   </si>
@@ -81,40 +81,55 @@
     <t>DAY 5</t>
   </si>
   <si>
-    <t>SPRINT REVIEW</t>
-  </si>
-  <si>
     <t>TOTAL</t>
   </si>
   <si>
-    <t>DAY 6</t>
-  </si>
-  <si>
     <t>AGILE SPRINT BACKLOG WITH BURNDOWN CHART</t>
-  </si>
-  <si>
-    <t>Tuesday 3/29</t>
-  </si>
-  <si>
-    <t>Thursday 3/31</t>
-  </si>
-  <si>
-    <t>Tuesday 4/5</t>
-  </si>
-  <si>
-    <t>Thursday 4/7</t>
-  </si>
-  <si>
-    <t>Tuesday 4/11</t>
-  </si>
-  <si>
-    <t>Thursday 4/14</t>
   </si>
   <si>
     <t>Sprint 4</t>
   </si>
   <si>
     <t>Complete Sprint 3!!!!!!</t>
+  </si>
+  <si>
+    <t>Colin Conway</t>
+  </si>
+  <si>
+    <t>Route Distance Refactor</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Tuesday 4/19</t>
+  </si>
+  <si>
+    <t>Thursday 4/21</t>
+  </si>
+  <si>
+    <t>Tuesday 5/3</t>
+  </si>
+  <si>
+    <t>Thursday 5/5</t>
+  </si>
+  <si>
+    <t>Thomas Abato</t>
+  </si>
+  <si>
+    <t>Observer GUI</t>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>Luke Suppa</t>
+  </si>
+  <si>
+    <t>UML Diagram</t>
+  </si>
+  <si>
+    <t>Compare Distance between route strategies</t>
   </si>
 </sst>
 </file>
@@ -369,9 +384,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Sprint Backlog #2'!$G$3:$M$3</c:f>
+              <c:f>'Sprint Backlog #2'!$G$3:$K$3</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>DAY 1</c:v>
                 </c:pt>
@@ -387,44 +402,32 @@
                 <c:pt idx="4">
                   <c:v>DAY 5</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>DAY 6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>SPRINT REVIEW</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint Backlog #2'!$F$30:$M$30</c:f>
+              <c:f>'Sprint Backlog #2'!$F$30:$K$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -537,13 +540,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>609600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>774700</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>406400</xdr:rowOff>
@@ -902,11 +905,11 @@
     <tabColor theme="3"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:AC126"/>
+  <dimension ref="B1:AA126"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="69" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -917,19 +920,18 @@
     <col min="4" max="4" width="35.83203125" style="3" customWidth="1"/>
     <col min="5" max="5" width="18.83203125" style="3" customWidth="1"/>
     <col min="6" max="6" width="10.83203125" style="3" customWidth="1"/>
-    <col min="7" max="12" width="10.83203125" style="3"/>
-    <col min="13" max="13" width="10.83203125" style="3" customWidth="1"/>
-    <col min="14" max="14" width="1.83203125" style="3" customWidth="1"/>
-    <col min="15" max="21" width="10.83203125" style="3"/>
-    <col min="22" max="22" width="10.83203125" style="3" customWidth="1"/>
-    <col min="23" max="23" width="10.83203125" style="3"/>
-    <col min="24" max="24" width="3.33203125" style="3" customWidth="1"/>
-    <col min="25" max="16384" width="10.83203125" style="3"/>
+    <col min="7" max="11" width="10.83203125" style="3"/>
+    <col min="12" max="12" width="1.83203125" style="3" customWidth="1"/>
+    <col min="13" max="19" width="10.83203125" style="3"/>
+    <col min="20" max="20" width="10.83203125" style="3" customWidth="1"/>
+    <col min="21" max="21" width="10.83203125" style="3"/>
+    <col min="22" max="22" width="3.33203125" style="3" customWidth="1"/>
+    <col min="23" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:29" ht="50" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:27" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
@@ -950,21 +952,19 @@
       <c r="S1" s="11"/>
       <c r="T1" s="11"/>
       <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
       <c r="X1" s="4"/>
       <c r="Y1" s="4"/>
       <c r="Z1" s="4"/>
       <c r="AA1" s="4"/>
-      <c r="AB1" s="4"/>
-      <c r="AC1" s="4"/>
-    </row>
-    <row r="2" spans="2:29" ht="50" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="2:27" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="10" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
@@ -974,8 +974,8 @@
       <c r="I2" s="13"/>
       <c r="J2" s="13"/>
       <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
       <c r="N2" s="10"/>
       <c r="O2" s="10"/>
       <c r="P2" s="10"/>
@@ -984,16 +984,14 @@
       <c r="S2" s="10"/>
       <c r="T2" s="10"/>
       <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
       <c r="X2" s="4"/>
       <c r="Y2" s="4"/>
       <c r="Z2" s="4"/>
       <c r="AA2" s="4"/>
-      <c r="AB2" s="4"/>
-      <c r="AC2" s="4"/>
-    </row>
-    <row r="3" spans="2:29" ht="35" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="2:27" ht="35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
@@ -1024,12 +1022,8 @@
       <c r="K3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
@@ -1044,36 +1038,30 @@
       <c r="Y3" s="4"/>
       <c r="Z3" s="4"/>
       <c r="AA3" s="4"/>
-      <c r="AB3" s="4"/>
-      <c r="AC3" s="4"/>
-    </row>
-    <row r="4" spans="2:29" ht="35" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="2:27" ht="35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="L4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="M4" s="6" t="s">
-        <v>24</v>
-      </c>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
@@ -1088,10 +1076,8 @@
       <c r="Y4" s="4"/>
       <c r="Z4" s="4"/>
       <c r="AA4" s="4"/>
-      <c r="AB4" s="4"/>
-      <c r="AC4" s="4"/>
-    </row>
-    <row r="5" spans="2:29" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="2:27" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
@@ -1106,8 +1092,8 @@
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
@@ -1122,22 +1108,38 @@
       <c r="Y5" s="4"/>
       <c r="Z5" s="4"/>
       <c r="AA5" s="4"/>
-      <c r="AB5" s="4"/>
-      <c r="AC5" s="4"/>
-    </row>
-    <row r="6" spans="2:29" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="9"/>
+    </row>
+    <row r="6" spans="2:27" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
+      <c r="D6" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="9">
+        <v>2</v>
+      </c>
+      <c r="G6" s="9">
+        <v>2</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0</v>
+      </c>
+      <c r="I6" s="9">
+        <v>0</v>
+      </c>
+      <c r="J6" s="9">
+        <v>0</v>
+      </c>
+      <c r="K6" s="9">
+        <v>0</v>
+      </c>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
@@ -1152,22 +1154,38 @@
       <c r="Y6" s="4"/>
       <c r="Z6" s="4"/>
       <c r="AA6" s="4"/>
-      <c r="AB6" s="4"/>
-      <c r="AC6" s="4"/>
-    </row>
-    <row r="7" spans="2:29" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="9"/>
+    </row>
+    <row r="7" spans="2:27" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
+      <c r="D7" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="9">
+        <v>10</v>
+      </c>
+      <c r="G7" s="9">
+        <v>10</v>
+      </c>
+      <c r="H7" s="9">
+        <v>10</v>
+      </c>
+      <c r="I7" s="9">
+        <v>10</v>
+      </c>
+      <c r="J7" s="9">
+        <v>10</v>
+      </c>
+      <c r="K7" s="9">
+        <v>10</v>
+      </c>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
@@ -1182,10 +1200,8 @@
       <c r="Y7" s="4"/>
       <c r="Z7" s="4"/>
       <c r="AA7" s="4"/>
-      <c r="AB7" s="4"/>
-      <c r="AC7" s="4"/>
-    </row>
-    <row r="8" spans="2:29" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="2:27" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -1196,8 +1212,8 @@
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
@@ -1212,10 +1228,8 @@
       <c r="Y8" s="4"/>
       <c r="Z8" s="4"/>
       <c r="AA8" s="4"/>
-      <c r="AB8" s="4"/>
-      <c r="AC8" s="4"/>
-    </row>
-    <row r="9" spans="2:29" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="2:27" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -1226,8 +1240,8 @@
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
@@ -1242,10 +1256,8 @@
       <c r="Y9" s="4"/>
       <c r="Z9" s="4"/>
       <c r="AA9" s="4"/>
-      <c r="AB9" s="4"/>
-      <c r="AC9" s="4"/>
-    </row>
-    <row r="10" spans="2:29" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="2:27" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="7" t="s">
         <v>1</v>
       </c>
@@ -1260,8 +1272,8 @@
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
@@ -1276,22 +1288,38 @@
       <c r="Y10" s="4"/>
       <c r="Z10" s="4"/>
       <c r="AA10" s="4"/>
-      <c r="AB10" s="4"/>
-      <c r="AC10" s="4"/>
-    </row>
-    <row r="11" spans="2:29" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="9"/>
+    </row>
+    <row r="11" spans="2:27" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
+      <c r="D11" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="9">
+        <v>10</v>
+      </c>
+      <c r="G11" s="9">
+        <v>10</v>
+      </c>
+      <c r="H11" s="9">
+        <v>10</v>
+      </c>
+      <c r="I11" s="9">
+        <v>10</v>
+      </c>
+      <c r="J11" s="9">
+        <v>10</v>
+      </c>
+      <c r="K11" s="9">
+        <v>10</v>
+      </c>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
@@ -1306,10 +1334,8 @@
       <c r="Y11" s="4"/>
       <c r="Z11" s="4"/>
       <c r="AA11" s="4"/>
-      <c r="AB11" s="4"/>
-      <c r="AC11" s="4"/>
-    </row>
-    <row r="12" spans="2:29" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="2:27" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -1320,8 +1346,8 @@
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
@@ -1336,10 +1362,8 @@
       <c r="Y12" s="4"/>
       <c r="Z12" s="4"/>
       <c r="AA12" s="4"/>
-      <c r="AB12" s="4"/>
-      <c r="AC12" s="4"/>
-    </row>
-    <row r="13" spans="2:29" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" spans="2:27" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -1350,8 +1374,8 @@
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
@@ -1366,10 +1390,8 @@
       <c r="Y13" s="4"/>
       <c r="Z13" s="4"/>
       <c r="AA13" s="4"/>
-      <c r="AB13" s="4"/>
-      <c r="AC13" s="4"/>
-    </row>
-    <row r="14" spans="2:29" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="14" spans="2:27" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -1380,8 +1402,8 @@
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
@@ -1396,10 +1418,8 @@
       <c r="Y14" s="4"/>
       <c r="Z14" s="4"/>
       <c r="AA14" s="4"/>
-      <c r="AB14" s="4"/>
-      <c r="AC14" s="4"/>
-    </row>
-    <row r="15" spans="2:29" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="15" spans="2:27" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="7" t="s">
         <v>3</v>
       </c>
@@ -1414,8 +1434,8 @@
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
@@ -1430,22 +1450,38 @@
       <c r="Y15" s="4"/>
       <c r="Z15" s="4"/>
       <c r="AA15" s="4"/>
-      <c r="AB15" s="4"/>
-      <c r="AC15" s="4"/>
-    </row>
-    <row r="16" spans="2:29" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="9"/>
+    </row>
+    <row r="16" spans="2:27" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="9" t="s">
+        <v>29</v>
+      </c>
       <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
+      <c r="D16" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="9">
+        <v>8</v>
+      </c>
+      <c r="G16" s="9">
+        <v>8</v>
+      </c>
+      <c r="H16" s="9">
+        <v>8</v>
+      </c>
+      <c r="I16" s="9">
+        <v>8</v>
+      </c>
+      <c r="J16" s="9">
+        <v>8</v>
+      </c>
+      <c r="K16" s="9">
+        <v>8</v>
+      </c>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
@@ -1460,10 +1496,8 @@
       <c r="Y16" s="4"/>
       <c r="Z16" s="4"/>
       <c r="AA16" s="4"/>
-      <c r="AB16" s="4"/>
-      <c r="AC16" s="4"/>
-    </row>
-    <row r="17" spans="2:29" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="2:27" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -1474,8 +1508,8 @@
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
@@ -1490,10 +1524,8 @@
       <c r="Y17" s="4"/>
       <c r="Z17" s="4"/>
       <c r="AA17" s="4"/>
-      <c r="AB17" s="4"/>
-      <c r="AC17" s="4"/>
-    </row>
-    <row r="18" spans="2:29" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="2:27" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -1504,8 +1536,8 @@
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
@@ -1520,10 +1552,8 @@
       <c r="Y18" s="4"/>
       <c r="Z18" s="4"/>
       <c r="AA18" s="4"/>
-      <c r="AB18" s="4"/>
-      <c r="AC18" s="4"/>
-    </row>
-    <row r="19" spans="2:29" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="2:27" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
@@ -1534,8 +1564,8 @@
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
@@ -1550,10 +1580,8 @@
       <c r="Y19" s="4"/>
       <c r="Z19" s="4"/>
       <c r="AA19" s="4"/>
-      <c r="AB19" s="4"/>
-      <c r="AC19" s="4"/>
-    </row>
-    <row r="20" spans="2:29" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20" spans="2:27" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="7" t="s">
         <v>2</v>
       </c>
@@ -1568,8 +1596,8 @@
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
       <c r="P20" s="4"/>
@@ -1584,10 +1612,8 @@
       <c r="Y20" s="4"/>
       <c r="Z20" s="4"/>
       <c r="AA20" s="4"/>
-      <c r="AB20" s="4"/>
-      <c r="AC20" s="4"/>
-    </row>
-    <row r="21" spans="2:29" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="21" spans="2:27" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -1598,8 +1624,8 @@
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
@@ -1614,10 +1640,8 @@
       <c r="Y21" s="4"/>
       <c r="Z21" s="4"/>
       <c r="AA21" s="4"/>
-      <c r="AB21" s="4"/>
-      <c r="AC21" s="4"/>
-    </row>
-    <row r="22" spans="2:29" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="22" spans="2:27" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -1628,8 +1652,8 @@
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
@@ -1644,10 +1668,8 @@
       <c r="Y22" s="4"/>
       <c r="Z22" s="4"/>
       <c r="AA22" s="4"/>
-      <c r="AB22" s="4"/>
-      <c r="AC22" s="4"/>
-    </row>
-    <row r="23" spans="2:29" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="23" spans="2:27" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
@@ -1658,8 +1680,8 @@
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
       <c r="P23" s="4"/>
@@ -1674,10 +1696,8 @@
       <c r="Y23" s="4"/>
       <c r="Z23" s="4"/>
       <c r="AA23" s="4"/>
-      <c r="AB23" s="4"/>
-      <c r="AC23" s="4"/>
-    </row>
-    <row r="24" spans="2:29" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="24" spans="2:27" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
@@ -1688,8 +1708,8 @@
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
       <c r="P24" s="4"/>
@@ -1704,10 +1724,8 @@
       <c r="Y24" s="4"/>
       <c r="Z24" s="4"/>
       <c r="AA24" s="4"/>
-      <c r="AB24" s="4"/>
-      <c r="AC24" s="4"/>
-    </row>
-    <row r="25" spans="2:29" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="25" spans="2:27" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="7" t="s">
         <v>4</v>
       </c>
@@ -1722,8 +1740,8 @@
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
       <c r="P25" s="4"/>
@@ -1738,10 +1756,8 @@
       <c r="Y25" s="4"/>
       <c r="Z25" s="4"/>
       <c r="AA25" s="4"/>
-      <c r="AB25" s="4"/>
-      <c r="AC25" s="4"/>
-    </row>
-    <row r="26" spans="2:29" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="26" spans="2:27" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
@@ -1752,8 +1768,8 @@
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
       <c r="P26" s="4"/>
@@ -1768,10 +1784,8 @@
       <c r="Y26" s="4"/>
       <c r="Z26" s="4"/>
       <c r="AA26" s="4"/>
-      <c r="AB26" s="4"/>
-      <c r="AC26" s="4"/>
-    </row>
-    <row r="27" spans="2:29" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="27" spans="2:27" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
@@ -1782,8 +1796,8 @@
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
       <c r="P27" s="4"/>
@@ -1798,10 +1812,8 @@
       <c r="Y27" s="4"/>
       <c r="Z27" s="4"/>
       <c r="AA27" s="4"/>
-      <c r="AB27" s="4"/>
-      <c r="AC27" s="4"/>
-    </row>
-    <row r="28" spans="2:29" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="28" spans="2:27" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
@@ -1812,8 +1824,8 @@
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
       <c r="N28" s="4"/>
       <c r="O28" s="4"/>
       <c r="P28" s="4"/>
@@ -1828,10 +1840,8 @@
       <c r="Y28" s="4"/>
       <c r="Z28" s="4"/>
       <c r="AA28" s="4"/>
-      <c r="AB28" s="4"/>
-      <c r="AC28" s="4"/>
-    </row>
-    <row r="29" spans="2:29" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="29" spans="2:27" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
@@ -1842,8 +1852,8 @@
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
       <c r="N29" s="4"/>
       <c r="O29" s="4"/>
       <c r="P29" s="4"/>
@@ -1858,48 +1868,40 @@
       <c r="Y29" s="4"/>
       <c r="Z29" s="4"/>
       <c r="AA29" s="4"/>
-      <c r="AB29" s="4"/>
-      <c r="AC29" s="4"/>
-    </row>
-    <row r="30" spans="2:29" ht="35" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="30" spans="2:27" ht="35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5">
         <f>SUM(F5:F29)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G30" s="5">
         <f>SUM(G6:G29)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H30" s="5">
-        <f t="shared" ref="H30:M30" si="0">SUM(H5:H29)</f>
-        <v>0</v>
+        <f t="shared" ref="H30:K30" si="0">SUM(H5:H29)</f>
+        <v>28</v>
       </c>
       <c r="I30" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J30" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="K30" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L30" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M30" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
       <c r="N30" s="4"/>
       <c r="O30" s="4"/>
       <c r="P30" s="4"/>
@@ -1914,10 +1916,8 @@
       <c r="Y30" s="4"/>
       <c r="Z30" s="4"/>
       <c r="AA30" s="4"/>
-      <c r="AB30" s="4"/>
-      <c r="AC30" s="4"/>
-    </row>
-    <row r="31" spans="2:29" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="31" spans="2:27" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="4"/>
       <c r="C31" s="1"/>
       <c r="D31" s="4"/>
@@ -1944,10 +1944,8 @@
       <c r="Y31" s="4"/>
       <c r="Z31" s="4"/>
       <c r="AA31" s="4"/>
-      <c r="AB31" s="4"/>
-      <c r="AC31" s="4"/>
-    </row>
-    <row r="32" spans="2:29" x14ac:dyDescent="0.15">
+    </row>
+    <row r="32" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B32" s="4"/>
       <c r="C32" s="1"/>
       <c r="D32" s="4"/>
@@ -1974,10 +1972,8 @@
       <c r="Y32" s="4"/>
       <c r="Z32" s="4"/>
       <c r="AA32" s="4"/>
-      <c r="AB32" s="4"/>
-      <c r="AC32" s="4"/>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.15">
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B33" s="4"/>
       <c r="C33" s="1"/>
       <c r="D33" s="4"/>
@@ -2004,10 +2000,8 @@
       <c r="Y33" s="4"/>
       <c r="Z33" s="4"/>
       <c r="AA33" s="4"/>
-      <c r="AB33" s="4"/>
-      <c r="AC33" s="4"/>
-    </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.15">
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B34" s="4"/>
       <c r="C34" s="1"/>
       <c r="D34" s="4"/>
@@ -2034,10 +2028,8 @@
       <c r="Y34" s="4"/>
       <c r="Z34" s="4"/>
       <c r="AA34" s="4"/>
-      <c r="AB34" s="4"/>
-      <c r="AC34" s="4"/>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.15">
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B35" s="4"/>
       <c r="C35" s="1"/>
       <c r="D35" s="4"/>
@@ -2064,10 +2056,8 @@
       <c r="Y35" s="4"/>
       <c r="Z35" s="4"/>
       <c r="AA35" s="4"/>
-      <c r="AB35" s="4"/>
-      <c r="AC35" s="4"/>
-    </row>
-    <row r="36" spans="2:29" x14ac:dyDescent="0.15">
+    </row>
+    <row r="36" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B36" s="4"/>
       <c r="C36" s="1"/>
       <c r="D36" s="4"/>
@@ -2094,10 +2084,8 @@
       <c r="Y36" s="4"/>
       <c r="Z36" s="4"/>
       <c r="AA36" s="4"/>
-      <c r="AB36" s="4"/>
-      <c r="AC36" s="4"/>
-    </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.15">
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B37" s="4"/>
       <c r="C37" s="1"/>
       <c r="D37" s="4"/>
@@ -2124,10 +2112,8 @@
       <c r="Y37" s="4"/>
       <c r="Z37" s="4"/>
       <c r="AA37" s="4"/>
-      <c r="AB37" s="4"/>
-      <c r="AC37" s="4"/>
-    </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.15">
+    </row>
+    <row r="38" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B38" s="4"/>
       <c r="C38" s="1"/>
       <c r="D38" s="4"/>
@@ -2154,10 +2140,8 @@
       <c r="Y38" s="4"/>
       <c r="Z38" s="4"/>
       <c r="AA38" s="4"/>
-      <c r="AB38" s="4"/>
-      <c r="AC38" s="4"/>
-    </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.15">
+    </row>
+    <row r="39" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B39" s="4"/>
       <c r="C39" s="1"/>
       <c r="D39" s="4"/>
@@ -2184,10 +2168,8 @@
       <c r="Y39" s="4"/>
       <c r="Z39" s="4"/>
       <c r="AA39" s="4"/>
-      <c r="AB39" s="4"/>
-      <c r="AC39" s="4"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.15">
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B40" s="4"/>
       <c r="C40" s="1"/>
       <c r="D40" s="4"/>
@@ -2214,10 +2196,8 @@
       <c r="Y40" s="4"/>
       <c r="Z40" s="4"/>
       <c r="AA40" s="4"/>
-      <c r="AB40" s="4"/>
-      <c r="AC40" s="4"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.15">
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B41" s="4"/>
       <c r="C41" s="1"/>
       <c r="D41" s="4"/>
@@ -2244,10 +2224,8 @@
       <c r="Y41" s="4"/>
       <c r="Z41" s="4"/>
       <c r="AA41" s="4"/>
-      <c r="AB41" s="4"/>
-      <c r="AC41" s="4"/>
-    </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.15">
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B42" s="4"/>
       <c r="C42" s="1"/>
       <c r="D42" s="4"/>
@@ -2274,10 +2252,8 @@
       <c r="Y42" s="4"/>
       <c r="Z42" s="4"/>
       <c r="AA42" s="4"/>
-      <c r="AB42" s="4"/>
-      <c r="AC42" s="4"/>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.15">
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B43" s="4"/>
       <c r="C43" s="1"/>
       <c r="D43" s="4"/>
@@ -2304,10 +2280,8 @@
       <c r="Y43" s="4"/>
       <c r="Z43" s="4"/>
       <c r="AA43" s="4"/>
-      <c r="AB43" s="4"/>
-      <c r="AC43" s="4"/>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.15">
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B44" s="4"/>
       <c r="C44" s="1"/>
       <c r="D44" s="4"/>
@@ -2334,10 +2308,8 @@
       <c r="Y44" s="4"/>
       <c r="Z44" s="4"/>
       <c r="AA44" s="4"/>
-      <c r="AB44" s="4"/>
-      <c r="AC44" s="4"/>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.15">
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B45" s="4"/>
       <c r="C45" s="1"/>
       <c r="D45" s="4"/>
@@ -2364,10 +2336,8 @@
       <c r="Y45" s="4"/>
       <c r="Z45" s="4"/>
       <c r="AA45" s="4"/>
-      <c r="AB45" s="4"/>
-      <c r="AC45" s="4"/>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.15">
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B46" s="4"/>
       <c r="C46" s="1"/>
       <c r="D46" s="4"/>
@@ -2394,10 +2364,8 @@
       <c r="Y46" s="4"/>
       <c r="Z46" s="4"/>
       <c r="AA46" s="4"/>
-      <c r="AB46" s="4"/>
-      <c r="AC46" s="4"/>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.15">
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B47" s="4"/>
       <c r="C47" s="1"/>
       <c r="D47" s="4"/>
@@ -2424,10 +2392,8 @@
       <c r="Y47" s="4"/>
       <c r="Z47" s="4"/>
       <c r="AA47" s="4"/>
-      <c r="AB47" s="4"/>
-      <c r="AC47" s="4"/>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.15">
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B48" s="4"/>
       <c r="C48" s="1"/>
       <c r="D48" s="4"/>
@@ -2454,10 +2420,8 @@
       <c r="Y48" s="4"/>
       <c r="Z48" s="4"/>
       <c r="AA48" s="4"/>
-      <c r="AB48" s="4"/>
-      <c r="AC48" s="4"/>
-    </row>
-    <row r="49" spans="2:29" x14ac:dyDescent="0.15">
+    </row>
+    <row r="49" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B49" s="4"/>
       <c r="C49" s="1"/>
       <c r="D49" s="4"/>
@@ -2484,10 +2448,8 @@
       <c r="Y49" s="4"/>
       <c r="Z49" s="4"/>
       <c r="AA49" s="4"/>
-      <c r="AB49" s="4"/>
-      <c r="AC49" s="4"/>
-    </row>
-    <row r="50" spans="2:29" x14ac:dyDescent="0.15">
+    </row>
+    <row r="50" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B50" s="4"/>
       <c r="C50" s="1"/>
       <c r="D50" s="4"/>
@@ -2514,10 +2476,8 @@
       <c r="Y50" s="4"/>
       <c r="Z50" s="4"/>
       <c r="AA50" s="4"/>
-      <c r="AB50" s="4"/>
-      <c r="AC50" s="4"/>
-    </row>
-    <row r="51" spans="2:29" x14ac:dyDescent="0.15">
+    </row>
+    <row r="51" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B51" s="4"/>
       <c r="C51" s="1"/>
       <c r="D51" s="4"/>
@@ -2544,10 +2504,8 @@
       <c r="Y51" s="4"/>
       <c r="Z51" s="4"/>
       <c r="AA51" s="4"/>
-      <c r="AB51" s="4"/>
-      <c r="AC51" s="4"/>
-    </row>
-    <row r="52" spans="2:29" x14ac:dyDescent="0.15">
+    </row>
+    <row r="52" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B52" s="4"/>
       <c r="C52" s="1"/>
       <c r="D52" s="4"/>
@@ -2574,10 +2532,8 @@
       <c r="Y52" s="4"/>
       <c r="Z52" s="4"/>
       <c r="AA52" s="4"/>
-      <c r="AB52" s="4"/>
-      <c r="AC52" s="4"/>
-    </row>
-    <row r="53" spans="2:29" x14ac:dyDescent="0.15">
+    </row>
+    <row r="53" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B53" s="4"/>
       <c r="C53" s="1"/>
       <c r="D53" s="4"/>
@@ -2604,10 +2560,8 @@
       <c r="Y53" s="4"/>
       <c r="Z53" s="4"/>
       <c r="AA53" s="4"/>
-      <c r="AB53" s="4"/>
-      <c r="AC53" s="4"/>
-    </row>
-    <row r="54" spans="2:29" x14ac:dyDescent="0.15">
+    </row>
+    <row r="54" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B54" s="4"/>
       <c r="C54" s="1"/>
       <c r="D54" s="4"/>
@@ -2634,10 +2588,8 @@
       <c r="Y54" s="4"/>
       <c r="Z54" s="4"/>
       <c r="AA54" s="4"/>
-      <c r="AB54" s="4"/>
-      <c r="AC54" s="4"/>
-    </row>
-    <row r="55" spans="2:29" x14ac:dyDescent="0.15">
+    </row>
+    <row r="55" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B55" s="4"/>
       <c r="C55" s="1"/>
       <c r="D55" s="4"/>
@@ -2664,10 +2616,8 @@
       <c r="Y55" s="4"/>
       <c r="Z55" s="4"/>
       <c r="AA55" s="4"/>
-      <c r="AB55" s="4"/>
-      <c r="AC55" s="4"/>
-    </row>
-    <row r="56" spans="2:29" x14ac:dyDescent="0.15">
+    </row>
+    <row r="56" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B56" s="4"/>
       <c r="C56" s="1"/>
       <c r="D56" s="4"/>
@@ -2694,10 +2644,8 @@
       <c r="Y56" s="4"/>
       <c r="Z56" s="4"/>
       <c r="AA56" s="4"/>
-      <c r="AB56" s="4"/>
-      <c r="AC56" s="4"/>
-    </row>
-    <row r="57" spans="2:29" x14ac:dyDescent="0.15">
+    </row>
+    <row r="57" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B57" s="4"/>
       <c r="C57" s="1"/>
       <c r="D57" s="4"/>
@@ -2724,10 +2672,8 @@
       <c r="Y57" s="4"/>
       <c r="Z57" s="4"/>
       <c r="AA57" s="4"/>
-      <c r="AB57" s="4"/>
-      <c r="AC57" s="4"/>
-    </row>
-    <row r="58" spans="2:29" x14ac:dyDescent="0.15">
+    </row>
+    <row r="58" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B58" s="4"/>
       <c r="C58" s="1"/>
       <c r="D58" s="4"/>
@@ -2754,10 +2700,8 @@
       <c r="Y58" s="4"/>
       <c r="Z58" s="4"/>
       <c r="AA58" s="4"/>
-      <c r="AB58" s="4"/>
-      <c r="AC58" s="4"/>
-    </row>
-    <row r="59" spans="2:29" x14ac:dyDescent="0.15">
+    </row>
+    <row r="59" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B59" s="4"/>
       <c r="C59" s="1"/>
       <c r="D59" s="4"/>
@@ -2784,10 +2728,8 @@
       <c r="Y59" s="4"/>
       <c r="Z59" s="4"/>
       <c r="AA59" s="4"/>
-      <c r="AB59" s="4"/>
-      <c r="AC59" s="4"/>
-    </row>
-    <row r="60" spans="2:29" x14ac:dyDescent="0.15">
+    </row>
+    <row r="60" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B60" s="4"/>
       <c r="C60" s="1"/>
       <c r="D60" s="4"/>
@@ -2814,10 +2756,8 @@
       <c r="Y60" s="4"/>
       <c r="Z60" s="4"/>
       <c r="AA60" s="4"/>
-      <c r="AB60" s="4"/>
-      <c r="AC60" s="4"/>
-    </row>
-    <row r="61" spans="2:29" x14ac:dyDescent="0.15">
+    </row>
+    <row r="61" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B61" s="4"/>
       <c r="C61" s="1"/>
       <c r="D61" s="4"/>
@@ -2844,10 +2784,8 @@
       <c r="Y61" s="4"/>
       <c r="Z61" s="4"/>
       <c r="AA61" s="4"/>
-      <c r="AB61" s="4"/>
-      <c r="AC61" s="4"/>
-    </row>
-    <row r="62" spans="2:29" x14ac:dyDescent="0.15">
+    </row>
+    <row r="62" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B62" s="4"/>
       <c r="C62" s="1"/>
       <c r="D62" s="4"/>
@@ -2874,10 +2812,8 @@
       <c r="Y62" s="4"/>
       <c r="Z62" s="4"/>
       <c r="AA62" s="4"/>
-      <c r="AB62" s="4"/>
-      <c r="AC62" s="4"/>
-    </row>
-    <row r="63" spans="2:29" x14ac:dyDescent="0.15">
+    </row>
+    <row r="63" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B63" s="4"/>
       <c r="C63" s="1"/>
       <c r="D63" s="4"/>
@@ -2904,10 +2840,8 @@
       <c r="Y63" s="4"/>
       <c r="Z63" s="4"/>
       <c r="AA63" s="4"/>
-      <c r="AB63" s="4"/>
-      <c r="AC63" s="4"/>
-    </row>
-    <row r="64" spans="2:29" x14ac:dyDescent="0.15">
+    </row>
+    <row r="64" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B64" s="4"/>
       <c r="C64" s="1"/>
       <c r="D64" s="4"/>
@@ -2934,10 +2868,8 @@
       <c r="Y64" s="4"/>
       <c r="Z64" s="4"/>
       <c r="AA64" s="4"/>
-      <c r="AB64" s="4"/>
-      <c r="AC64" s="4"/>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.15">
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B65" s="4"/>
       <c r="C65" s="1"/>
       <c r="D65" s="4"/>
@@ -2964,10 +2896,8 @@
       <c r="Y65" s="4"/>
       <c r="Z65" s="4"/>
       <c r="AA65" s="4"/>
-      <c r="AB65" s="4"/>
-      <c r="AC65" s="4"/>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.15">
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B66" s="4"/>
       <c r="C66" s="1"/>
       <c r="D66" s="4"/>
@@ -2994,10 +2924,8 @@
       <c r="Y66" s="4"/>
       <c r="Z66" s="4"/>
       <c r="AA66" s="4"/>
-      <c r="AB66" s="4"/>
-      <c r="AC66" s="4"/>
-    </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.15">
+    </row>
+    <row r="67" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B67" s="4"/>
       <c r="C67" s="1"/>
       <c r="D67" s="4"/>
@@ -3024,10 +2952,8 @@
       <c r="Y67" s="4"/>
       <c r="Z67" s="4"/>
       <c r="AA67" s="4"/>
-      <c r="AB67" s="4"/>
-      <c r="AC67" s="4"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.15">
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B68" s="4"/>
       <c r="C68" s="1"/>
       <c r="D68" s="4"/>
@@ -3054,10 +2980,8 @@
       <c r="Y68" s="4"/>
       <c r="Z68" s="4"/>
       <c r="AA68" s="4"/>
-      <c r="AB68" s="4"/>
-      <c r="AC68" s="4"/>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.15">
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B69" s="4"/>
       <c r="C69" s="1"/>
       <c r="D69" s="4"/>
@@ -3084,10 +3008,8 @@
       <c r="Y69" s="4"/>
       <c r="Z69" s="4"/>
       <c r="AA69" s="4"/>
-      <c r="AB69" s="4"/>
-      <c r="AC69" s="4"/>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.15">
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B70" s="4"/>
       <c r="C70" s="1"/>
       <c r="D70" s="4"/>
@@ -3114,10 +3036,8 @@
       <c r="Y70" s="4"/>
       <c r="Z70" s="4"/>
       <c r="AA70" s="4"/>
-      <c r="AB70" s="4"/>
-      <c r="AC70" s="4"/>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.15">
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B71" s="4"/>
       <c r="C71" s="1"/>
       <c r="D71" s="4"/>
@@ -3144,10 +3064,8 @@
       <c r="Y71" s="4"/>
       <c r="Z71" s="4"/>
       <c r="AA71" s="4"/>
-      <c r="AB71" s="4"/>
-      <c r="AC71" s="4"/>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.15">
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B72" s="4"/>
       <c r="C72" s="1"/>
       <c r="D72" s="4"/>
@@ -3174,10 +3092,8 @@
       <c r="Y72" s="4"/>
       <c r="Z72" s="4"/>
       <c r="AA72" s="4"/>
-      <c r="AB72" s="4"/>
-      <c r="AC72" s="4"/>
-    </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.15">
+    </row>
+    <row r="73" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B73" s="4"/>
       <c r="C73" s="1"/>
       <c r="D73" s="4"/>
@@ -3204,10 +3120,8 @@
       <c r="Y73" s="4"/>
       <c r="Z73" s="4"/>
       <c r="AA73" s="4"/>
-      <c r="AB73" s="4"/>
-      <c r="AC73" s="4"/>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.15">
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B74" s="4"/>
       <c r="C74" s="1"/>
       <c r="D74" s="4"/>
@@ -3234,10 +3148,8 @@
       <c r="Y74" s="4"/>
       <c r="Z74" s="4"/>
       <c r="AA74" s="4"/>
-      <c r="AB74" s="4"/>
-      <c r="AC74" s="4"/>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.15">
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B75" s="4"/>
       <c r="C75" s="1"/>
       <c r="D75" s="4"/>
@@ -3264,10 +3176,8 @@
       <c r="Y75" s="4"/>
       <c r="Z75" s="4"/>
       <c r="AA75" s="4"/>
-      <c r="AB75" s="4"/>
-      <c r="AC75" s="4"/>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.15">
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B76" s="4"/>
       <c r="C76" s="1"/>
       <c r="D76" s="4"/>
@@ -3294,10 +3204,8 @@
       <c r="Y76" s="4"/>
       <c r="Z76" s="4"/>
       <c r="AA76" s="4"/>
-      <c r="AB76" s="4"/>
-      <c r="AC76" s="4"/>
-    </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.15">
+    </row>
+    <row r="77" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B77" s="4"/>
       <c r="C77" s="1"/>
       <c r="D77" s="4"/>
@@ -3324,10 +3232,8 @@
       <c r="Y77" s="4"/>
       <c r="Z77" s="4"/>
       <c r="AA77" s="4"/>
-      <c r="AB77" s="4"/>
-      <c r="AC77" s="4"/>
-    </row>
-    <row r="78" spans="2:29" x14ac:dyDescent="0.15">
+    </row>
+    <row r="78" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B78" s="4"/>
       <c r="C78" s="1"/>
       <c r="D78" s="4"/>
@@ -3354,10 +3260,8 @@
       <c r="Y78" s="4"/>
       <c r="Z78" s="4"/>
       <c r="AA78" s="4"/>
-      <c r="AB78" s="4"/>
-      <c r="AC78" s="4"/>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.15">
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B79" s="4"/>
       <c r="C79" s="1"/>
       <c r="D79" s="4"/>
@@ -3384,10 +3288,8 @@
       <c r="Y79" s="4"/>
       <c r="Z79" s="4"/>
       <c r="AA79" s="4"/>
-      <c r="AB79" s="4"/>
-      <c r="AC79" s="4"/>
-    </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.15">
+    </row>
+    <row r="80" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B80" s="4"/>
       <c r="C80" s="1"/>
       <c r="D80" s="4"/>
@@ -3414,10 +3316,8 @@
       <c r="Y80" s="4"/>
       <c r="Z80" s="4"/>
       <c r="AA80" s="4"/>
-      <c r="AB80" s="4"/>
-      <c r="AC80" s="4"/>
-    </row>
-    <row r="81" spans="2:29" x14ac:dyDescent="0.15">
+    </row>
+    <row r="81" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B81" s="4"/>
       <c r="C81" s="1"/>
       <c r="D81" s="4"/>
@@ -3444,10 +3344,8 @@
       <c r="Y81" s="4"/>
       <c r="Z81" s="4"/>
       <c r="AA81" s="4"/>
-      <c r="AB81" s="4"/>
-      <c r="AC81" s="4"/>
-    </row>
-    <row r="82" spans="2:29" x14ac:dyDescent="0.15">
+    </row>
+    <row r="82" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B82" s="4"/>
       <c r="C82" s="1"/>
       <c r="D82" s="4"/>
@@ -3474,10 +3372,8 @@
       <c r="Y82" s="4"/>
       <c r="Z82" s="4"/>
       <c r="AA82" s="4"/>
-      <c r="AB82" s="4"/>
-      <c r="AC82" s="4"/>
-    </row>
-    <row r="83" spans="2:29" x14ac:dyDescent="0.15">
+    </row>
+    <row r="83" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B83" s="4"/>
       <c r="C83" s="1"/>
       <c r="D83" s="4"/>
@@ -3504,10 +3400,8 @@
       <c r="Y83" s="4"/>
       <c r="Z83" s="4"/>
       <c r="AA83" s="4"/>
-      <c r="AB83" s="4"/>
-      <c r="AC83" s="4"/>
-    </row>
-    <row r="84" spans="2:29" x14ac:dyDescent="0.15">
+    </row>
+    <row r="84" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B84" s="4"/>
       <c r="C84" s="1"/>
       <c r="D84" s="4"/>
@@ -3534,10 +3428,8 @@
       <c r="Y84" s="4"/>
       <c r="Z84" s="4"/>
       <c r="AA84" s="4"/>
-      <c r="AB84" s="4"/>
-      <c r="AC84" s="4"/>
-    </row>
-    <row r="85" spans="2:29" x14ac:dyDescent="0.15">
+    </row>
+    <row r="85" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B85" s="4"/>
       <c r="C85" s="1"/>
       <c r="D85" s="4"/>
@@ -3564,10 +3456,8 @@
       <c r="Y85" s="4"/>
       <c r="Z85" s="4"/>
       <c r="AA85" s="4"/>
-      <c r="AB85" s="4"/>
-      <c r="AC85" s="4"/>
-    </row>
-    <row r="86" spans="2:29" x14ac:dyDescent="0.15">
+    </row>
+    <row r="86" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B86" s="4"/>
       <c r="C86" s="1"/>
       <c r="D86" s="4"/>
@@ -3594,10 +3484,8 @@
       <c r="Y86" s="4"/>
       <c r="Z86" s="4"/>
       <c r="AA86" s="4"/>
-      <c r="AB86" s="4"/>
-      <c r="AC86" s="4"/>
-    </row>
-    <row r="87" spans="2:29" x14ac:dyDescent="0.15">
+    </row>
+    <row r="87" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B87" s="4"/>
       <c r="C87" s="1"/>
       <c r="D87" s="4"/>
@@ -3624,10 +3512,8 @@
       <c r="Y87" s="4"/>
       <c r="Z87" s="4"/>
       <c r="AA87" s="4"/>
-      <c r="AB87" s="4"/>
-      <c r="AC87" s="4"/>
-    </row>
-    <row r="88" spans="2:29" x14ac:dyDescent="0.15">
+    </row>
+    <row r="88" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B88" s="4"/>
       <c r="C88" s="1"/>
       <c r="D88" s="4"/>
@@ -3654,10 +3540,8 @@
       <c r="Y88" s="4"/>
       <c r="Z88" s="4"/>
       <c r="AA88" s="4"/>
-      <c r="AB88" s="4"/>
-      <c r="AC88" s="4"/>
-    </row>
-    <row r="89" spans="2:29" x14ac:dyDescent="0.15">
+    </row>
+    <row r="89" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B89" s="4"/>
       <c r="C89" s="1"/>
       <c r="D89" s="4"/>
@@ -3684,10 +3568,8 @@
       <c r="Y89" s="4"/>
       <c r="Z89" s="4"/>
       <c r="AA89" s="4"/>
-      <c r="AB89" s="4"/>
-      <c r="AC89" s="4"/>
-    </row>
-    <row r="90" spans="2:29" x14ac:dyDescent="0.15">
+    </row>
+    <row r="90" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B90" s="4"/>
       <c r="C90" s="1"/>
       <c r="D90" s="4"/>
@@ -3714,10 +3596,8 @@
       <c r="Y90" s="4"/>
       <c r="Z90" s="4"/>
       <c r="AA90" s="4"/>
-      <c r="AB90" s="4"/>
-      <c r="AC90" s="4"/>
-    </row>
-    <row r="91" spans="2:29" x14ac:dyDescent="0.15">
+    </row>
+    <row r="91" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B91" s="4"/>
       <c r="C91" s="1"/>
       <c r="D91" s="4"/>
@@ -3744,10 +3624,8 @@
       <c r="Y91" s="4"/>
       <c r="Z91" s="4"/>
       <c r="AA91" s="4"/>
-      <c r="AB91" s="4"/>
-      <c r="AC91" s="4"/>
-    </row>
-    <row r="92" spans="2:29" x14ac:dyDescent="0.15">
+    </row>
+    <row r="92" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B92" s="4"/>
       <c r="C92" s="1"/>
       <c r="D92" s="4"/>
@@ -3774,10 +3652,8 @@
       <c r="Y92" s="4"/>
       <c r="Z92" s="4"/>
       <c r="AA92" s="4"/>
-      <c r="AB92" s="4"/>
-      <c r="AC92" s="4"/>
-    </row>
-    <row r="93" spans="2:29" x14ac:dyDescent="0.15">
+    </row>
+    <row r="93" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B93" s="4"/>
       <c r="C93" s="1"/>
       <c r="D93" s="4"/>
@@ -3804,10 +3680,8 @@
       <c r="Y93" s="4"/>
       <c r="Z93" s="4"/>
       <c r="AA93" s="4"/>
-      <c r="AB93" s="4"/>
-      <c r="AC93" s="4"/>
-    </row>
-    <row r="94" spans="2:29" x14ac:dyDescent="0.15">
+    </row>
+    <row r="94" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B94" s="4"/>
       <c r="C94" s="1"/>
       <c r="D94" s="4"/>
@@ -3834,10 +3708,8 @@
       <c r="Y94" s="4"/>
       <c r="Z94" s="4"/>
       <c r="AA94" s="4"/>
-      <c r="AB94" s="4"/>
-      <c r="AC94" s="4"/>
-    </row>
-    <row r="95" spans="2:29" x14ac:dyDescent="0.15">
+    </row>
+    <row r="95" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B95" s="4"/>
       <c r="C95" s="1"/>
       <c r="D95" s="4"/>
@@ -3864,10 +3736,8 @@
       <c r="Y95" s="4"/>
       <c r="Z95" s="4"/>
       <c r="AA95" s="4"/>
-      <c r="AB95" s="4"/>
-      <c r="AC95" s="4"/>
-    </row>
-    <row r="96" spans="2:29" x14ac:dyDescent="0.15">
+    </row>
+    <row r="96" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B96" s="4"/>
       <c r="C96" s="1"/>
       <c r="D96" s="4"/>
@@ -3894,10 +3764,8 @@
       <c r="Y96" s="4"/>
       <c r="Z96" s="4"/>
       <c r="AA96" s="4"/>
-      <c r="AB96" s="4"/>
-      <c r="AC96" s="4"/>
-    </row>
-    <row r="97" spans="2:29" x14ac:dyDescent="0.15">
+    </row>
+    <row r="97" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B97" s="4"/>
       <c r="C97" s="1"/>
       <c r="D97" s="4"/>
@@ -3924,10 +3792,8 @@
       <c r="Y97" s="4"/>
       <c r="Z97" s="4"/>
       <c r="AA97" s="4"/>
-      <c r="AB97" s="4"/>
-      <c r="AC97" s="4"/>
-    </row>
-    <row r="98" spans="2:29" x14ac:dyDescent="0.15">
+    </row>
+    <row r="98" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B98" s="4"/>
       <c r="C98" s="1"/>
       <c r="D98" s="4"/>
@@ -3954,10 +3820,8 @@
       <c r="Y98" s="4"/>
       <c r="Z98" s="4"/>
       <c r="AA98" s="4"/>
-      <c r="AB98" s="4"/>
-      <c r="AC98" s="4"/>
-    </row>
-    <row r="99" spans="2:29" x14ac:dyDescent="0.15">
+    </row>
+    <row r="99" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B99" s="4"/>
       <c r="C99" s="1"/>
       <c r="D99" s="4"/>
@@ -3984,10 +3848,8 @@
       <c r="Y99" s="4"/>
       <c r="Z99" s="4"/>
       <c r="AA99" s="4"/>
-      <c r="AB99" s="4"/>
-      <c r="AC99" s="4"/>
-    </row>
-    <row r="100" spans="2:29" x14ac:dyDescent="0.15">
+    </row>
+    <row r="100" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B100" s="4"/>
       <c r="C100" s="1"/>
       <c r="D100" s="4"/>
@@ -4014,10 +3876,8 @@
       <c r="Y100" s="4"/>
       <c r="Z100" s="4"/>
       <c r="AA100" s="4"/>
-      <c r="AB100" s="4"/>
-      <c r="AC100" s="4"/>
-    </row>
-    <row r="101" spans="2:29" x14ac:dyDescent="0.15">
+    </row>
+    <row r="101" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B101" s="4"/>
       <c r="C101" s="1"/>
       <c r="D101" s="4"/>
@@ -4044,10 +3904,8 @@
       <c r="Y101" s="4"/>
       <c r="Z101" s="4"/>
       <c r="AA101" s="4"/>
-      <c r="AB101" s="4"/>
-      <c r="AC101" s="4"/>
-    </row>
-    <row r="102" spans="2:29" x14ac:dyDescent="0.15">
+    </row>
+    <row r="102" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B102" s="4"/>
       <c r="C102" s="1"/>
       <c r="D102" s="4"/>
@@ -4074,10 +3932,8 @@
       <c r="Y102" s="4"/>
       <c r="Z102" s="4"/>
       <c r="AA102" s="4"/>
-      <c r="AB102" s="4"/>
-      <c r="AC102" s="4"/>
-    </row>
-    <row r="103" spans="2:29" x14ac:dyDescent="0.15">
+    </row>
+    <row r="103" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B103" s="4"/>
       <c r="C103" s="1"/>
       <c r="D103" s="4"/>
@@ -4104,10 +3960,8 @@
       <c r="Y103" s="4"/>
       <c r="Z103" s="4"/>
       <c r="AA103" s="4"/>
-      <c r="AB103" s="4"/>
-      <c r="AC103" s="4"/>
-    </row>
-    <row r="104" spans="2:29" x14ac:dyDescent="0.15">
+    </row>
+    <row r="104" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B104" s="4"/>
       <c r="C104" s="1"/>
       <c r="D104" s="4"/>
@@ -4134,10 +3988,8 @@
       <c r="Y104" s="4"/>
       <c r="Z104" s="4"/>
       <c r="AA104" s="4"/>
-      <c r="AB104" s="4"/>
-      <c r="AC104" s="4"/>
-    </row>
-    <row r="105" spans="2:29" x14ac:dyDescent="0.15">
+    </row>
+    <row r="105" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B105" s="4"/>
       <c r="C105" s="1"/>
       <c r="D105" s="4"/>
@@ -4164,10 +4016,8 @@
       <c r="Y105" s="4"/>
       <c r="Z105" s="4"/>
       <c r="AA105" s="4"/>
-      <c r="AB105" s="4"/>
-      <c r="AC105" s="4"/>
-    </row>
-    <row r="106" spans="2:29" x14ac:dyDescent="0.15">
+    </row>
+    <row r="106" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B106" s="4"/>
       <c r="C106" s="1"/>
       <c r="D106" s="4"/>
@@ -4194,10 +4044,8 @@
       <c r="Y106" s="4"/>
       <c r="Z106" s="4"/>
       <c r="AA106" s="4"/>
-      <c r="AB106" s="4"/>
-      <c r="AC106" s="4"/>
-    </row>
-    <row r="107" spans="2:29" x14ac:dyDescent="0.15">
+    </row>
+    <row r="107" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B107" s="4"/>
       <c r="C107" s="1"/>
       <c r="D107" s="4"/>
@@ -4224,10 +4072,8 @@
       <c r="Y107" s="4"/>
       <c r="Z107" s="4"/>
       <c r="AA107" s="4"/>
-      <c r="AB107" s="4"/>
-      <c r="AC107" s="4"/>
-    </row>
-    <row r="108" spans="2:29" x14ac:dyDescent="0.15">
+    </row>
+    <row r="108" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B108" s="4"/>
       <c r="C108" s="1"/>
       <c r="D108" s="4"/>
@@ -4254,10 +4100,8 @@
       <c r="Y108" s="4"/>
       <c r="Z108" s="4"/>
       <c r="AA108" s="4"/>
-      <c r="AB108" s="4"/>
-      <c r="AC108" s="4"/>
-    </row>
-    <row r="109" spans="2:29" x14ac:dyDescent="0.15">
+    </row>
+    <row r="109" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B109" s="4"/>
       <c r="C109" s="1"/>
       <c r="D109" s="4"/>
@@ -4284,10 +4128,8 @@
       <c r="Y109" s="4"/>
       <c r="Z109" s="4"/>
       <c r="AA109" s="4"/>
-      <c r="AB109" s="4"/>
-      <c r="AC109" s="4"/>
-    </row>
-    <row r="110" spans="2:29" x14ac:dyDescent="0.15">
+    </row>
+    <row r="110" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B110" s="4"/>
       <c r="C110" s="1"/>
       <c r="D110" s="4"/>
@@ -4314,10 +4156,8 @@
       <c r="Y110" s="4"/>
       <c r="Z110" s="4"/>
       <c r="AA110" s="4"/>
-      <c r="AB110" s="4"/>
-      <c r="AC110" s="4"/>
-    </row>
-    <row r="111" spans="2:29" x14ac:dyDescent="0.15">
+    </row>
+    <row r="111" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B111" s="4"/>
       <c r="C111" s="1"/>
       <c r="D111" s="4"/>
@@ -4344,10 +4184,8 @@
       <c r="Y111" s="4"/>
       <c r="Z111" s="4"/>
       <c r="AA111" s="4"/>
-      <c r="AB111" s="4"/>
-      <c r="AC111" s="4"/>
-    </row>
-    <row r="112" spans="2:29" x14ac:dyDescent="0.15">
+    </row>
+    <row r="112" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B112" s="4"/>
       <c r="C112" s="1"/>
       <c r="D112" s="4"/>
@@ -4374,10 +4212,8 @@
       <c r="Y112" s="4"/>
       <c r="Z112" s="4"/>
       <c r="AA112" s="4"/>
-      <c r="AB112" s="4"/>
-      <c r="AC112" s="4"/>
-    </row>
-    <row r="113" spans="2:29" x14ac:dyDescent="0.15">
+    </row>
+    <row r="113" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B113" s="4"/>
       <c r="C113" s="1"/>
       <c r="D113" s="4"/>
@@ -4404,10 +4240,8 @@
       <c r="Y113" s="4"/>
       <c r="Z113" s="4"/>
       <c r="AA113" s="4"/>
-      <c r="AB113" s="4"/>
-      <c r="AC113" s="4"/>
-    </row>
-    <row r="114" spans="2:29" x14ac:dyDescent="0.15">
+    </row>
+    <row r="114" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B114" s="4"/>
       <c r="C114" s="1"/>
       <c r="D114" s="4"/>
@@ -4434,10 +4268,8 @@
       <c r="Y114" s="4"/>
       <c r="Z114" s="4"/>
       <c r="AA114" s="4"/>
-      <c r="AB114" s="4"/>
-      <c r="AC114" s="4"/>
-    </row>
-    <row r="115" spans="2:29" x14ac:dyDescent="0.15">
+    </row>
+    <row r="115" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B115" s="4"/>
       <c r="C115" s="1"/>
       <c r="D115" s="4"/>
@@ -4464,10 +4296,8 @@
       <c r="Y115" s="4"/>
       <c r="Z115" s="4"/>
       <c r="AA115" s="4"/>
-      <c r="AB115" s="4"/>
-      <c r="AC115" s="4"/>
-    </row>
-    <row r="116" spans="2:29" x14ac:dyDescent="0.15">
+    </row>
+    <row r="116" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B116" s="4"/>
       <c r="C116" s="1"/>
       <c r="D116" s="4"/>
@@ -4494,10 +4324,8 @@
       <c r="Y116" s="4"/>
       <c r="Z116" s="4"/>
       <c r="AA116" s="4"/>
-      <c r="AB116" s="4"/>
-      <c r="AC116" s="4"/>
-    </row>
-    <row r="117" spans="2:29" x14ac:dyDescent="0.15">
+    </row>
+    <row r="117" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B117" s="4"/>
       <c r="C117" s="1"/>
       <c r="D117" s="4"/>
@@ -4524,10 +4352,8 @@
       <c r="Y117" s="4"/>
       <c r="Z117" s="4"/>
       <c r="AA117" s="4"/>
-      <c r="AB117" s="4"/>
-      <c r="AC117" s="4"/>
-    </row>
-    <row r="118" spans="2:29" x14ac:dyDescent="0.15">
+    </row>
+    <row r="118" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B118" s="4"/>
       <c r="C118" s="1"/>
       <c r="D118" s="4"/>
@@ -4554,10 +4380,8 @@
       <c r="Y118" s="4"/>
       <c r="Z118" s="4"/>
       <c r="AA118" s="4"/>
-      <c r="AB118" s="4"/>
-      <c r="AC118" s="4"/>
-    </row>
-    <row r="119" spans="2:29" x14ac:dyDescent="0.15">
+    </row>
+    <row r="119" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B119" s="4"/>
       <c r="C119" s="1"/>
       <c r="D119" s="4"/>
@@ -4584,10 +4408,8 @@
       <c r="Y119" s="4"/>
       <c r="Z119" s="4"/>
       <c r="AA119" s="4"/>
-      <c r="AB119" s="4"/>
-      <c r="AC119" s="4"/>
-    </row>
-    <row r="120" spans="2:29" x14ac:dyDescent="0.15">
+    </row>
+    <row r="120" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B120" s="4"/>
       <c r="C120" s="1"/>
       <c r="D120" s="4"/>
@@ -4614,10 +4436,8 @@
       <c r="Y120" s="4"/>
       <c r="Z120" s="4"/>
       <c r="AA120" s="4"/>
-      <c r="AB120" s="4"/>
-      <c r="AC120" s="4"/>
-    </row>
-    <row r="121" spans="2:29" x14ac:dyDescent="0.15">
+    </row>
+    <row r="121" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B121" s="4"/>
       <c r="C121" s="1"/>
       <c r="D121" s="4"/>
@@ -4644,10 +4464,8 @@
       <c r="Y121" s="4"/>
       <c r="Z121" s="4"/>
       <c r="AA121" s="4"/>
-      <c r="AB121" s="4"/>
-      <c r="AC121" s="4"/>
-    </row>
-    <row r="122" spans="2:29" x14ac:dyDescent="0.15">
+    </row>
+    <row r="122" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B122" s="4"/>
       <c r="C122" s="1"/>
       <c r="D122" s="4"/>
@@ -4674,10 +4492,8 @@
       <c r="Y122" s="4"/>
       <c r="Z122" s="4"/>
       <c r="AA122" s="4"/>
-      <c r="AB122" s="4"/>
-      <c r="AC122" s="4"/>
-    </row>
-    <row r="123" spans="2:29" x14ac:dyDescent="0.15">
+    </row>
+    <row r="123" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B123" s="4"/>
       <c r="C123" s="1"/>
       <c r="D123" s="4"/>
@@ -4704,10 +4520,8 @@
       <c r="Y123" s="4"/>
       <c r="Z123" s="4"/>
       <c r="AA123" s="4"/>
-      <c r="AB123" s="4"/>
-      <c r="AC123" s="4"/>
-    </row>
-    <row r="124" spans="2:29" x14ac:dyDescent="0.15">
+    </row>
+    <row r="124" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B124" s="4"/>
       <c r="C124" s="1"/>
       <c r="D124" s="4"/>
@@ -4734,10 +4548,8 @@
       <c r="Y124" s="4"/>
       <c r="Z124" s="4"/>
       <c r="AA124" s="4"/>
-      <c r="AB124" s="4"/>
-      <c r="AC124" s="4"/>
-    </row>
-    <row r="125" spans="2:29" x14ac:dyDescent="0.15">
+    </row>
+    <row r="125" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B125" s="4"/>
       <c r="C125" s="1"/>
       <c r="D125" s="4"/>
@@ -4764,10 +4576,8 @@
       <c r="Y125" s="4"/>
       <c r="Z125" s="4"/>
       <c r="AA125" s="4"/>
-      <c r="AB125" s="4"/>
-      <c r="AC125" s="4"/>
-    </row>
-    <row r="126" spans="2:29" x14ac:dyDescent="0.15">
+    </row>
+    <row r="126" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B126" s="4"/>
       <c r="C126" s="1"/>
       <c r="D126" s="4"/>
@@ -4794,13 +4604,11 @@
       <c r="Y126" s="4"/>
       <c r="Z126" s="4"/>
       <c r="AA126" s="4"/>
-      <c r="AB126" s="4"/>
-      <c r="AC126" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B1:W1"/>
-    <mergeCell ref="C2:M2"/>
+    <mergeCell ref="B1:U1"/>
+    <mergeCell ref="C2:K2"/>
   </mergeCells>
   <pageMargins left="0.3" right="0.3" top="0.3" bottom="0.3" header="0" footer="0"/>
   <pageSetup scale="45" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>

--- a/Sprints/Sprint-Backlog-Burndown-Chart.xlsx
+++ b/Sprints/Sprint-Backlog-Burndown-Chart.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/conwaycmoravian.edu/Courses/234/sandwichTruckProj./Sprints/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jakeclause/Desktop/sandwichTruckProj./Sprints/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CCEDE91-F458-1A41-AD53-52347E034AB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B1CF8AE-EF14-DE40-AF78-F0812ABFD20A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1200" windowWidth="28800" windowHeight="14820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2420" yWindow="1340" windowWidth="28800" windowHeight="14820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint Backlog #2" sheetId="8" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t>User Story #1</t>
   </si>
@@ -130,6 +130,12 @@
   </si>
   <si>
     <t>Compare Distance between route strategies</t>
+  </si>
+  <si>
+    <t>Sandwich Order Refactoring</t>
+  </si>
+  <si>
+    <t>Jake Clause</t>
   </si>
 </sst>
 </file>
@@ -412,10 +418,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>30</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>28</c:v>
@@ -909,7 +915,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="69" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1614,16 +1620,34 @@
       <c r="AA20" s="4"/>
     </row>
     <row r="21" spans="2:27" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="9"/>
+      <c r="B21" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
+      <c r="D21" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="9">
+        <v>2</v>
+      </c>
+      <c r="G21" s="9">
+        <v>2</v>
+      </c>
+      <c r="H21" s="9">
+        <v>0</v>
+      </c>
+      <c r="I21" s="9">
+        <v>0</v>
+      </c>
+      <c r="J21" s="9">
+        <v>0</v>
+      </c>
+      <c r="K21" s="9">
+        <v>0</v>
+      </c>
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
@@ -1878,11 +1902,11 @@
       <c r="E30" s="5"/>
       <c r="F30" s="5">
         <f>SUM(F5:F29)</f>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G30" s="5">
         <f>SUM(G6:G29)</f>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H30" s="5">
         <f t="shared" ref="H30:K30" si="0">SUM(H5:H29)</f>

--- a/Sprints/Sprint-Backlog-Burndown-Chart.xlsx
+++ b/Sprints/Sprint-Backlog-Burndown-Chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/conwaycmoravian.edu/Courses/234/sandwichTruckProj./Sprints/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CCEDE91-F458-1A41-AD53-52347E034AB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{976EB5E5-959C-6149-B34B-FA7B7014DE59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1200" windowWidth="28800" windowHeight="14820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
   <si>
     <t>User Story #1</t>
   </si>
@@ -130,6 +130,9 @@
   </si>
   <si>
     <t>Compare Distance between route strategies</t>
+  </si>
+  <si>
+    <t>Comapre Time between routes</t>
   </si>
 </sst>
 </file>
@@ -412,22 +415,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>30</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>28</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>28</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -909,7 +912,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="69" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomLeft" activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1164,25 +1167,25 @@
         <v>31</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F7" s="9">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G7" s="9">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H7" s="9">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I7" s="9">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J7" s="9">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K7" s="9">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
@@ -1202,16 +1205,34 @@
       <c r="AA7" s="4"/>
     </row>
     <row r="8" spans="2:27" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="9"/>
+      <c r="B8" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
+      <c r="D8" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="9">
+        <v>12</v>
+      </c>
+      <c r="G8" s="9">
+        <v>12</v>
+      </c>
+      <c r="H8" s="9">
+        <v>12</v>
+      </c>
+      <c r="I8" s="9">
+        <v>8</v>
+      </c>
+      <c r="J8" s="9">
+        <v>4</v>
+      </c>
+      <c r="K8" s="9">
+        <v>0</v>
+      </c>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
@@ -1878,27 +1899,27 @@
       <c r="E30" s="5"/>
       <c r="F30" s="5">
         <f>SUM(F5:F29)</f>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G30" s="5">
         <f>SUM(G6:G29)</f>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H30" s="5">
         <f t="shared" ref="H30:K30" si="0">SUM(H5:H29)</f>
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="I30" s="5">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="J30" s="5">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="K30" s="5">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="L30" s="4"/>
       <c r="M30" s="4"/>

--- a/Sprints/Sprint-Backlog-Burndown-Chart.xlsx
+++ b/Sprints/Sprint-Backlog-Burndown-Chart.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/conwaycmoravian.edu/Courses/234/sandwichTruckProj./Sprints/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jakeclause/Desktop/sandwichTruckProj./Sprints/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{976EB5E5-959C-6149-B34B-FA7B7014DE59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC53DE15-EE6F-6343-8363-199BF8568325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1200" windowWidth="28800" windowHeight="14820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
   <si>
     <t>User Story #1</t>
   </si>
@@ -133,6 +133,12 @@
   </si>
   <si>
     <t>Comapre Time between routes</t>
+  </si>
+  <si>
+    <t>Jake Clause</t>
+  </si>
+  <si>
+    <t>SandwichOrder Refactoring</t>
   </si>
 </sst>
 </file>
@@ -415,10 +421,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>40</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>38</c:v>
@@ -912,7 +918,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="69" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J9" sqref="J9"/>
+      <selection pane="bottomLeft" activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1635,16 +1641,34 @@
       <c r="AA20" s="4"/>
     </row>
     <row r="21" spans="2:27" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="9"/>
+      <c r="B21" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
+      <c r="D21" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="9">
+        <v>2</v>
+      </c>
+      <c r="G21" s="9">
+        <v>2</v>
+      </c>
+      <c r="H21" s="9">
+        <v>0</v>
+      </c>
+      <c r="I21" s="9">
+        <v>0</v>
+      </c>
+      <c r="J21" s="9">
+        <v>0</v>
+      </c>
+      <c r="K21" s="9">
+        <v>0</v>
+      </c>
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
@@ -1899,11 +1923,11 @@
       <c r="E30" s="5"/>
       <c r="F30" s="5">
         <f>SUM(F5:F29)</f>
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G30" s="5">
         <f>SUM(G6:G29)</f>
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H30" s="5">
         <f t="shared" ref="H30:K30" si="0">SUM(H5:H29)</f>

--- a/Sprints/Sprint-Backlog-Burndown-Chart.xlsx
+++ b/Sprints/Sprint-Backlog-Burndown-Chart.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jakeclause/Desktop/sandwichTruckProj./Sprints/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/conwaycmoravian.edu/Courses/234/sandwichTruckProj./Sprints/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC53DE15-EE6F-6343-8363-199BF8568325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B313717-CCDA-BC4F-A20C-9AA3AF62AE8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1200" windowWidth="28800" windowHeight="14820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -433,10 +433,10 @@
                   <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -918,7 +918,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="69" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K21" sqref="K21"/>
+      <selection pane="bottomLeft" activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1502,10 +1502,10 @@
         <v>8</v>
       </c>
       <c r="J16" s="9">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K16" s="9">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
@@ -1939,11 +1939,11 @@
       </c>
       <c r="J30" s="5">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K30" s="5">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="L30" s="4"/>
       <c r="M30" s="4"/>
